--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H2">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I2">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J2">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>29.56749344993556</v>
+        <v>34.46010994072113</v>
       </c>
       <c r="R2">
-        <v>266.10744104942</v>
+        <v>310.1409894664901</v>
       </c>
       <c r="S2">
-        <v>0.006970210362993739</v>
+        <v>0.02866388405049294</v>
       </c>
       <c r="T2">
-        <v>0.006970210362993738</v>
+        <v>0.02866388405049294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H3">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I3">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J3">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>41.10226013141778</v>
+        <v>30.39627448373823</v>
       </c>
       <c r="R3">
-        <v>369.92034118276</v>
+        <v>273.566470353644</v>
       </c>
       <c r="S3">
-        <v>0.009689404345199814</v>
+        <v>0.02528358989183762</v>
       </c>
       <c r="T3">
-        <v>0.009689404345199812</v>
+        <v>0.02528358989183762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H4">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I4">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J4">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>96.24402107005001</v>
+        <v>10.427055619084</v>
       </c>
       <c r="R4">
-        <v>866.1961896304501</v>
+        <v>93.84350057175601</v>
       </c>
       <c r="S4">
-        <v>0.02268846610804313</v>
+        <v>0.008673214153048352</v>
       </c>
       <c r="T4">
-        <v>0.02268846610804313</v>
+        <v>0.008673214153048352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H5">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I5">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J5">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>4.19149165094889</v>
+        <v>2.072611221620334</v>
       </c>
       <c r="R5">
-        <v>37.72342485854</v>
+        <v>18.653500994583</v>
       </c>
       <c r="S5">
-        <v>0.0009880979120301238</v>
+        <v>0.001723995885110997</v>
       </c>
       <c r="T5">
-        <v>0.0009880979120301234</v>
+        <v>0.001723995885110997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H6">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I6">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J6">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>7.201578506043334</v>
+        <v>5.510224967248446</v>
       </c>
       <c r="R6">
-        <v>64.81420655439</v>
+        <v>49.592024705236</v>
       </c>
       <c r="S6">
-        <v>0.001697692677863622</v>
+        <v>0.004583399467530413</v>
       </c>
       <c r="T6">
-        <v>0.001697692677863622</v>
+        <v>0.004583399467530412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.40047666666667</v>
+        <v>8.430972333333335</v>
       </c>
       <c r="H7">
-        <v>34.20143</v>
+        <v>25.292917</v>
       </c>
       <c r="I7">
-        <v>0.07373336193522012</v>
+        <v>0.09228725886271376</v>
       </c>
       <c r="J7">
-        <v>0.07373336193522011</v>
+        <v>0.09228725886271374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>134.4686070826978</v>
+        <v>28.08271731412767</v>
       </c>
       <c r="R7">
-        <v>1210.21746374428</v>
+        <v>252.744455827149</v>
       </c>
       <c r="S7">
-        <v>0.03169949052908968</v>
+        <v>0.02335917541469344</v>
       </c>
       <c r="T7">
-        <v>0.03169949052908968</v>
+        <v>0.02335917541469344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
         <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J8">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>142.8413222050518</v>
+        <v>225.1134049198145</v>
       </c>
       <c r="R8">
-        <v>1285.571899845466</v>
+        <v>2026.02064427833</v>
       </c>
       <c r="S8">
-        <v>0.03367326574311118</v>
+        <v>0.1872490989707562</v>
       </c>
       <c r="T8">
-        <v>0.03367326574311118</v>
+        <v>0.1872490989707562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
         <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J9">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>198.5660770578609</v>
@@ -1013,10 +1013,10 @@
         <v>1787.094693520748</v>
       </c>
       <c r="S9">
-        <v>0.04680976188905629</v>
+        <v>0.1651670589251946</v>
       </c>
       <c r="T9">
-        <v>0.04680976188905629</v>
+        <v>0.1651670589251946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
         <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J10">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>464.9573440256149</v>
+        <v>68.115568921228</v>
       </c>
       <c r="R10">
-        <v>4184.616096230535</v>
+        <v>613.0401202910521</v>
       </c>
       <c r="S10">
-        <v>0.109608563984799</v>
+        <v>0.0566584602588352</v>
       </c>
       <c r="T10">
-        <v>0.109608563984799</v>
+        <v>0.0566584602588352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
         <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J11">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>20.24920409458244</v>
+        <v>13.53949740661233</v>
       </c>
       <c r="R11">
-        <v>182.242836851242</v>
+        <v>121.855476659511</v>
       </c>
       <c r="S11">
-        <v>0.00477352645605275</v>
+        <v>0.01126214003474431</v>
       </c>
       <c r="T11">
-        <v>0.00477352645605275</v>
+        <v>0.01126214003474431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
         <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J12">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>34.79101119979966</v>
+        <v>35.99598220624578</v>
       </c>
       <c r="R12">
-        <v>313.1191007981969</v>
+        <v>323.963839856212</v>
       </c>
       <c r="S12">
-        <v>0.008201597041510576</v>
+        <v>0.02994142102327386</v>
       </c>
       <c r="T12">
-        <v>0.008201597041510576</v>
+        <v>0.02994142102327386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.07599633333333</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
         <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="J13">
-        <v>0.3562077701068512</v>
+        <v>0.6028738477340758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>649.6213033170048</v>
+        <v>183.4525811107037</v>
       </c>
       <c r="R13">
-        <v>5846.591729853043</v>
+        <v>1651.073229996333</v>
       </c>
       <c r="S13">
-        <v>0.1531410549923214</v>
+        <v>0.1525956685212717</v>
       </c>
       <c r="T13">
-        <v>0.1531410549923214</v>
+        <v>0.1525956685212717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H14">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I14">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J14">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>34.9606424389011</v>
+        <v>4.750552854016667</v>
       </c>
       <c r="R14">
-        <v>314.6457819501099</v>
+        <v>42.75497568615</v>
       </c>
       <c r="S14">
-        <v>0.008241585734589156</v>
+        <v>0.003951504984096476</v>
       </c>
       <c r="T14">
-        <v>0.008241585734589156</v>
+        <v>0.003951504984096476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H15">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I15">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J15">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
-        <v>48.59936545917554</v>
+        <v>4.190326401993333</v>
       </c>
       <c r="R15">
-        <v>437.39428913258</v>
+        <v>37.71293761794</v>
       </c>
       <c r="S15">
-        <v>0.01145676421073845</v>
+        <v>0.003485509196780661</v>
       </c>
       <c r="T15">
-        <v>0.01145676421073845</v>
+        <v>0.003485509196780661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H16">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I16">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J16">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>113.799054803525</v>
+        <v>1.43743821234</v>
       </c>
       <c r="R16">
-        <v>1024.191493231725</v>
+        <v>12.93694391106</v>
       </c>
       <c r="S16">
-        <v>0.02682687162621663</v>
+        <v>0.001195659628455596</v>
       </c>
       <c r="T16">
-        <v>0.02682687162621663</v>
+        <v>0.001195659628455596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H17">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I17">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J17">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>4.956025141007777</v>
+        <v>0.285723091745</v>
       </c>
       <c r="R17">
-        <v>44.60422626907</v>
+        <v>2.571507825705</v>
       </c>
       <c r="S17">
-        <v>0.001168328247221957</v>
+        <v>0.0002376641742123139</v>
       </c>
       <c r="T17">
-        <v>0.001168328247221957</v>
+        <v>0.0002376641742123139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H18">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I18">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J18">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>8.515155725721666</v>
+        <v>0.7596207612066666</v>
       </c>
       <c r="R18">
-        <v>76.636401531495</v>
+        <v>6.836586850859999</v>
       </c>
       <c r="S18">
-        <v>0.002007354014719837</v>
+        <v>0.0006318517688721984</v>
       </c>
       <c r="T18">
-        <v>0.002007354014719837</v>
+        <v>0.0006318517688721984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.47993833333333</v>
+        <v>1.162265</v>
       </c>
       <c r="H19">
-        <v>40.439815</v>
+        <v>3.486795</v>
       </c>
       <c r="I19">
-        <v>0.08718242237205703</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="J19">
-        <v>0.08718242237205705</v>
+        <v>0.01272240575360351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>158.9958546684155</v>
+        <v>3.871387326235</v>
       </c>
       <c r="R19">
-        <v>1430.96269201574</v>
+        <v>34.842485936115</v>
       </c>
       <c r="S19">
-        <v>0.037481518538571</v>
+        <v>0.003220216001186261</v>
       </c>
       <c r="T19">
-        <v>0.03748151853857101</v>
+        <v>0.003220216001186261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H20">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J20">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>149.0358784275905</v>
+        <v>98.53742934719445</v>
       </c>
       <c r="R20">
-        <v>1341.322905848314</v>
+        <v>886.83686412475</v>
       </c>
       <c r="S20">
-        <v>0.03513356402810432</v>
+        <v>0.0819633325111358</v>
       </c>
       <c r="T20">
-        <v>0.03513356402810431</v>
+        <v>0.0819633325111358</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H21">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J21">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>207.1772317940102</v>
+        <v>86.91703986178888</v>
       </c>
       <c r="R21">
-        <v>1864.595086146092</v>
+        <v>782.2533587560999</v>
       </c>
       <c r="S21">
-        <v>0.04883974661132843</v>
+        <v>0.07229750447390051</v>
       </c>
       <c r="T21">
-        <v>0.04883974661132843</v>
+        <v>0.07229750447390051</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H22">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J22">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>485.121007902335</v>
+        <v>29.8157857921</v>
       </c>
       <c r="R22">
-        <v>4366.089071121015</v>
+        <v>268.3420721289</v>
       </c>
       <c r="S22">
-        <v>0.1143619252782549</v>
+        <v>0.02480073999442396</v>
       </c>
       <c r="T22">
-        <v>0.1143619252782549</v>
+        <v>0.02480073999442396</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H23">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J23">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>21.12734517651311</v>
+        <v>5.926556304258333</v>
       </c>
       <c r="R23">
-        <v>190.146106588618</v>
+        <v>53.339006738325</v>
       </c>
       <c r="S23">
-        <v>0.00498053852759705</v>
+        <v>0.004929703445990336</v>
       </c>
       <c r="T23">
-        <v>0.004980538527597049</v>
+        <v>0.004929703445990337</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H24">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J24">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>36.29978241242367</v>
+        <v>15.75628761287778</v>
       </c>
       <c r="R24">
-        <v>326.698041711813</v>
+        <v>141.8065885159</v>
       </c>
       <c r="S24">
-        <v>0.008557273208630565</v>
+        <v>0.01310606385117922</v>
       </c>
       <c r="T24">
-        <v>0.008557273208630565</v>
+        <v>0.01310606385117922</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>57.46446033333334</v>
+        <v>24.10805833333333</v>
       </c>
       <c r="H25">
-        <v>172.393381</v>
+        <v>72.324175</v>
       </c>
       <c r="I25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="J25">
-        <v>0.3716553242513339</v>
+        <v>0.2638920556398144</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>677.7932330123863</v>
+        <v>80.30150739444167</v>
       </c>
       <c r="R25">
-        <v>6100.139097111476</v>
+        <v>722.713566549975</v>
       </c>
       <c r="S25">
-        <v>0.1597822765974185</v>
+        <v>0.06679471136318463</v>
       </c>
       <c r="T25">
-        <v>0.1597822765974185</v>
+        <v>0.06679471136318463</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H26">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J26">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>6.911436811916666</v>
+        <v>6.367190052992223</v>
       </c>
       <c r="R26">
-        <v>62.20293130725</v>
+        <v>57.30471047693001</v>
       </c>
       <c r="S26">
-        <v>0.001629294974603366</v>
+        <v>0.005296222145558304</v>
       </c>
       <c r="T26">
-        <v>0.001629294974603366</v>
+        <v>0.005296222145558304</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H27">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J27">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>9.607702262833332</v>
+        <v>5.616315701656444</v>
       </c>
       <c r="R27">
-        <v>86.4693203655</v>
+        <v>50.546841314908</v>
       </c>
       <c r="S27">
-        <v>0.002264909806790039</v>
+        <v>0.004671645631432201</v>
       </c>
       <c r="T27">
-        <v>0.002264909806790039</v>
+        <v>0.004671645631432201</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H28">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J28">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>22.497154561875</v>
+        <v>1.926605716988</v>
       </c>
       <c r="R28">
-        <v>202.474391056875</v>
+        <v>17.339451452892</v>
       </c>
       <c r="S28">
-        <v>0.0053034559771043</v>
+        <v>0.001602548656337955</v>
       </c>
       <c r="T28">
-        <v>0.0053034559771043</v>
+        <v>0.001602548656337955</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H29">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J29">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>0.9797661659166667</v>
+        <v>0.3829561071256666</v>
       </c>
       <c r="R29">
-        <v>8.817895493250001</v>
+        <v>3.446604964131</v>
       </c>
       <c r="S29">
-        <v>0.0002309690638655701</v>
+        <v>0.0003185424965260152</v>
       </c>
       <c r="T29">
-        <v>0.0002309690638655701</v>
+        <v>0.0003185424965260152</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H30">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J30">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>1.683377553625</v>
+        <v>1.018123553916889</v>
       </c>
       <c r="R30">
-        <v>15.150397982625</v>
+        <v>9.163111985252</v>
       </c>
       <c r="S30">
-        <v>0.0003968376855811427</v>
+        <v>0.0008468741263086868</v>
       </c>
       <c r="T30">
-        <v>0.0003968376855811426</v>
+        <v>0.0008468741263086868</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.664875</v>
+        <v>1.557789666666667</v>
       </c>
       <c r="H31">
-        <v>7.994625</v>
+        <v>4.673369</v>
       </c>
       <c r="I31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="J31">
-        <v>0.0172352611765461</v>
+        <v>0.01705190487376294</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>31.43219707183333</v>
+        <v>5.188840042910333</v>
       </c>
       <c r="R31">
-        <v>282.8897736465</v>
+        <v>46.699560386193</v>
       </c>
       <c r="S31">
-        <v>0.00740979366860168</v>
+        <v>0.004316071817599783</v>
       </c>
       <c r="T31">
-        <v>0.00740979366860168</v>
+        <v>0.004316071817599783</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H32">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J32">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>37.68885931241622</v>
+        <v>4.171827380808889</v>
       </c>
       <c r="R32">
-        <v>339.1997338117459</v>
+        <v>37.54644642728</v>
       </c>
       <c r="S32">
-        <v>0.00888473276213372</v>
+        <v>0.003470121729962051</v>
       </c>
       <c r="T32">
-        <v>0.008884732762133718</v>
+        <v>0.003470121729962051</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H33">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J33">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>52.3919047158431</v>
+        <v>3.679849262929777</v>
       </c>
       <c r="R33">
-        <v>471.5271424425879</v>
+        <v>33.118643366368</v>
       </c>
       <c r="S33">
-        <v>0.01235081349745411</v>
+        <v>0.003060894836881178</v>
       </c>
       <c r="T33">
-        <v>0.01235081349745411</v>
+        <v>0.003060894836881178</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H34">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J34">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>122.679569572315</v>
+        <v>1.262325518048</v>
       </c>
       <c r="R34">
-        <v>1104.116126150835</v>
+        <v>11.360929662432</v>
       </c>
       <c r="S34">
-        <v>0.02892035500433754</v>
+        <v>0.001050001069223203</v>
       </c>
       <c r="T34">
-        <v>0.02892035500433754</v>
+        <v>0.001050001069223203</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H35">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J35">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>5.342777513733555</v>
+        <v>0.2509155153306666</v>
       </c>
       <c r="R35">
-        <v>48.084997623602</v>
+        <v>2.258239637976</v>
       </c>
       <c r="S35">
-        <v>0.001259500852057404</v>
+        <v>0.0002087112679059957</v>
       </c>
       <c r="T35">
-        <v>0.001259500852057404</v>
+        <v>0.0002087112679059957</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H36">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J36">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>9.179651281606333</v>
+        <v>0.6670816614435555</v>
       </c>
       <c r="R36">
-        <v>82.61686153445699</v>
+        <v>6.003734952992</v>
       </c>
       <c r="S36">
-        <v>0.00216400151064752</v>
+        <v>0.0005548778407474844</v>
       </c>
       <c r="T36">
-        <v>0.00216400151064752</v>
+        <v>0.0005548778407474844</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.53186966666667</v>
+        <v>1.020674666666667</v>
       </c>
       <c r="H37">
-        <v>43.595609</v>
+        <v>3.062024</v>
       </c>
       <c r="I37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="J37">
-        <v>0.09398586015799161</v>
+        <v>0.01117252713602951</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>171.4033833425071</v>
+        <v>3.399764226525333</v>
       </c>
       <c r="R37">
-        <v>1542.630450082564</v>
+        <v>30.597878038728</v>
       </c>
       <c r="S37">
-        <v>0.04040645653136131</v>
+        <v>0.002827920391309601</v>
       </c>
       <c r="T37">
-        <v>0.04040645653136131</v>
+        <v>0.002827920391309601</v>
       </c>
     </row>
   </sheetData>
